--- a/Raw Data/DENU_2021_phenology.xlsx
+++ b/Raw Data/DENU_2021_phenology.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TCC computer transfer July 2024\ROA climate project\files for GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTREB\LTREB_Phenology_Demography\Pheno_Demo\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60C0CC63-B2ED-4885-BB66-9D35C376EBB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA35543D-5628-4A4D-9CF3-62A7FB2EDDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenology" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -795,17 +796,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -826,9 +827,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -866,7 +867,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -972,7 +973,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1114,7 +1115,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1129,23 +1130,23 @@
       <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="4"/>
-    <col min="2" max="2" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" style="4"/>
+    <col min="2" max="2" width="14.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="11" width="8.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.58203125" style="2" customWidth="1"/>
     <col min="13" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>160</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>162</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>160</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>162</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>158</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>160</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>162</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>162</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>165</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>167</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>169</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>160</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>162</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>165</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>167</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>169</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>172</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>174</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>176</v>
       </c>
@@ -1905,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>183</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>162</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>165</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>167</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>169</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>172</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>174</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>176</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>183</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>160</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>162</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>165</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>167</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>169</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>165</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>167</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>169</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>172</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>174</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>176</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>183</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>160</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>162</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>165</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>167</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>169</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>172</v>
       </c>
@@ -2931,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>174</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>176</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>183</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>160</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>162</v>
       </c>
@@ -3121,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>162</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>165</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>167</v>
       </c>
@@ -3235,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>169</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>158</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>160</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>162</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>158</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>160</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>162</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>165</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>158</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>160</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>162</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>165</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>167</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>162</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>165</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>167</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>169</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>172</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>174</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>176</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>183</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>160</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>162</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>165</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>167</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>169</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>172</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>174</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>176</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>183</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>162</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>165</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>167</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>169</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>172</v>
       </c>
@@ -4565,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>174</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>176</v>
       </c>
@@ -4641,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>183</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>165</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>167</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>169</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>172</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>174</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>176</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>183</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>162</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>165</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>167</v>
       </c>
@@ -5059,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>169</v>
       </c>
@@ -5097,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>172</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>174</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>176</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>183</v>
       </c>
@@ -5249,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>165</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>167</v>
       </c>
@@ -5325,7 +5326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>169</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>172</v>
       </c>
@@ -5401,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>174</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>176</v>
       </c>
@@ -5477,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>183</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>160</v>
       </c>
@@ -5553,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>162</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>165</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>167</v>
       </c>
@@ -5667,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>169</v>
       </c>
@@ -5705,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>172</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>174</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>176</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>183</v>
       </c>
@@ -5857,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>162</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>165</v>
       </c>
@@ -5933,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>167</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>169</v>
       </c>
@@ -6009,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>172</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>174</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>176</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>183</v>
       </c>
@@ -6161,7 +6162,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>160</v>
       </c>
@@ -6199,7 +6200,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>162</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>165</v>
       </c>
@@ -6275,7 +6276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>167</v>
       </c>
@@ -6313,7 +6314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>162</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>165</v>
       </c>
@@ -6389,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>167</v>
       </c>
@@ -6427,7 +6428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>169</v>
       </c>
@@ -6465,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>172</v>
       </c>
@@ -6503,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>174</v>
       </c>
@@ -6541,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>176</v>
       </c>
@@ -6579,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>183</v>
       </c>
@@ -6617,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>160</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>162</v>
       </c>
@@ -6693,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>165</v>
       </c>
@@ -6731,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>167</v>
       </c>
@@ -6769,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>169</v>
       </c>
@@ -6807,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>172</v>
       </c>
@@ -6845,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>174</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>162</v>
       </c>
@@ -6921,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>165</v>
       </c>
@@ -6959,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>167</v>
       </c>
@@ -6997,7 +6998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>169</v>
       </c>
@@ -7035,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>172</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>174</v>
       </c>
@@ -7111,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>176</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>183</v>
       </c>
@@ -7187,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>162</v>
       </c>
@@ -7225,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>165</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>167</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>169</v>
       </c>
@@ -7339,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>172</v>
       </c>
@@ -7377,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>174</v>
       </c>
@@ -7415,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>176</v>
       </c>
@@ -7453,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>183</v>
       </c>
@@ -7491,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>158</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>160</v>
       </c>
@@ -7567,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>162</v>
       </c>
@@ -7605,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>165</v>
       </c>
@@ -7643,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>167</v>
       </c>
@@ -7681,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>169</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>162</v>
       </c>
@@ -7757,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>165</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>167</v>
       </c>
@@ -7833,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>169</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>172</v>
       </c>
@@ -7909,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>174</v>
       </c>
@@ -7947,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>176</v>
       </c>
@@ -7985,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>183</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>162</v>
       </c>
@@ -8061,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>165</v>
       </c>
@@ -8099,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>167</v>
       </c>
@@ -8137,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>169</v>
       </c>
@@ -8175,7 +8176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>172</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>174</v>
       </c>
@@ -8251,7 +8252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>176</v>
       </c>
@@ -8289,7 +8290,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>183</v>
       </c>
@@ -8327,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>162</v>
       </c>
@@ -8365,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>165</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>167</v>
       </c>
@@ -8441,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>169</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>172</v>
       </c>
@@ -8517,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>174</v>
       </c>
@@ -8555,7 +8556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>176</v>
       </c>
@@ -8593,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>183</v>
       </c>
@@ -8631,7 +8632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>162</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>165</v>
       </c>
@@ -8707,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>160</v>
       </c>
@@ -8745,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>162</v>
       </c>
@@ -8783,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>165</v>
       </c>
@@ -8821,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>167</v>
       </c>
@@ -8859,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>169</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>172</v>
       </c>
@@ -8935,7 +8936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>174</v>
       </c>
@@ -8973,7 +8974,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>176</v>
       </c>
@@ -9011,7 +9012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>183</v>
       </c>
@@ -9049,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>160</v>
       </c>
@@ -9087,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>162</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>165</v>
       </c>
@@ -9163,7 +9164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>167</v>
       </c>
@@ -9201,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>169</v>
       </c>
@@ -9239,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>172</v>
       </c>
@@ -9277,7 +9278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>174</v>
       </c>
@@ -9315,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>176</v>
       </c>
@@ -9353,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>183</v>
       </c>
@@ -9391,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>160</v>
       </c>
@@ -9429,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>162</v>
       </c>
@@ -9467,7 +9468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>165</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>167</v>
       </c>
@@ -9543,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>169</v>
       </c>
@@ -9581,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>172</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>174</v>
       </c>
@@ -9657,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>176</v>
       </c>
@@ -9695,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>183</v>
       </c>
@@ -9733,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>162</v>
       </c>
@@ -9771,7 +9772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>165</v>
       </c>
@@ -9809,7 +9810,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>162</v>
       </c>
@@ -9847,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>165</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>167</v>
       </c>
@@ -9923,7 +9924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>169</v>
       </c>
@@ -9961,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>172</v>
       </c>
@@ -9999,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>174</v>
       </c>
@@ -10037,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>176</v>
       </c>
@@ -10075,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>183</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>160</v>
       </c>
@@ -10151,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>162</v>
       </c>
@@ -10189,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>165</v>
       </c>
@@ -10227,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>167</v>
       </c>
@@ -10265,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>169</v>
       </c>
@@ -10303,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>172</v>
       </c>
@@ -10341,7 +10342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>174</v>
       </c>
@@ -10379,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>176</v>
       </c>
@@ -10417,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>183</v>
       </c>
@@ -10455,7 +10456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>158</v>
       </c>
@@ -10493,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>160</v>
       </c>
@@ -10531,7 +10532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>162</v>
       </c>
@@ -10569,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>165</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>160</v>
       </c>
@@ -10645,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>162</v>
       </c>
@@ -10683,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>165</v>
       </c>
@@ -10721,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>167</v>
       </c>
@@ -10759,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>169</v>
       </c>
@@ -10797,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>172</v>
       </c>
@@ -10835,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>174</v>
       </c>
@@ -10873,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>176</v>
       </c>
@@ -10911,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>183</v>
       </c>
@@ -10949,7 +10950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>160</v>
       </c>
@@ -10987,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>162</v>
       </c>
@@ -11025,7 +11026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>165</v>
       </c>
@@ -11063,7 +11064,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>167</v>
       </c>
@@ -11101,7 +11102,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>169</v>
       </c>
@@ -11139,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>172</v>
       </c>
@@ -11177,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>174</v>
       </c>
@@ -11215,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>176</v>
       </c>
@@ -11253,7 +11254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>183</v>
       </c>
@@ -11291,7 +11292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>158</v>
       </c>
@@ -11329,7 +11330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>160</v>
       </c>
@@ -11367,7 +11368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>162</v>
       </c>
@@ -11405,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>165</v>
       </c>
@@ -11443,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>160</v>
       </c>
@@ -11481,7 +11482,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>162</v>
       </c>
@@ -11519,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
         <v>165</v>
       </c>
@@ -11557,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>167</v>
       </c>
@@ -11595,7 +11596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
         <v>169</v>
       </c>
@@ -11633,7 +11634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>172</v>
       </c>
@@ -11671,7 +11672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
         <v>174</v>
       </c>
@@ -11709,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>176</v>
       </c>
@@ -11747,7 +11748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
         <v>183</v>
       </c>
@@ -11785,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>160</v>
       </c>
@@ -11823,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
         <v>162</v>
       </c>
@@ -11861,7 +11862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>165</v>
       </c>
@@ -11899,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
         <v>167</v>
       </c>
@@ -11937,7 +11938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <v>169</v>
       </c>
@@ -11975,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
         <v>172</v>
       </c>
@@ -12013,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>174</v>
       </c>
@@ -12051,7 +12052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
         <v>176</v>
       </c>
@@ -12089,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <v>183</v>
       </c>
@@ -12127,7 +12128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
         <v>158</v>
       </c>
@@ -12165,7 +12166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>160</v>
       </c>
@@ -12203,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>162</v>
       </c>
@@ -12241,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>165</v>
       </c>
@@ -12279,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
         <v>167</v>
       </c>
@@ -12317,7 +12318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <v>169</v>
       </c>
@@ -12355,7 +12356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
         <v>172</v>
       </c>
@@ -12393,7 +12394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <v>174</v>
       </c>
@@ -12431,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
         <v>176</v>
       </c>
@@ -12469,7 +12470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <v>183</v>
       </c>
@@ -12507,7 +12508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
         <v>158</v>
       </c>
@@ -12545,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <v>160</v>
       </c>
@@ -12583,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
         <v>162</v>
       </c>
@@ -12621,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <v>165</v>
       </c>
@@ -12659,7 +12660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
         <v>167</v>
       </c>
@@ -12697,7 +12698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <v>162</v>
       </c>
@@ -12735,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
         <v>165</v>
       </c>
@@ -12773,7 +12774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>167</v>
       </c>
@@ -12811,7 +12812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
         <v>169</v>
       </c>
@@ -12849,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <v>172</v>
       </c>
@@ -12887,7 +12888,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
         <v>174</v>
       </c>
@@ -12925,7 +12926,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <v>160</v>
       </c>
@@ -12963,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" s="3">
         <v>162</v>
       </c>
@@ -13001,7 +13002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
         <v>165</v>
       </c>
@@ -13039,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" s="3">
         <v>167</v>
       </c>
@@ -13077,7 +13078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
         <v>169</v>
       </c>
@@ -13115,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316" s="3">
         <v>172</v>
       </c>
@@ -13153,7 +13154,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
         <v>174</v>
       </c>
@@ -13191,7 +13192,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318" s="3">
         <v>176</v>
       </c>
@@ -13229,7 +13230,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
         <v>183</v>
       </c>
@@ -13267,7 +13268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320" s="3">
         <v>160</v>
       </c>
@@ -13305,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" s="3">
         <v>162</v>
       </c>
@@ -13343,7 +13344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" s="3">
         <v>165</v>
       </c>
@@ -13381,7 +13382,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" s="3">
         <v>167</v>
       </c>
@@ -13419,7 +13420,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" s="3">
         <v>169</v>
       </c>
@@ -13457,7 +13458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
         <v>165</v>
       </c>
@@ -13495,7 +13496,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" s="3">
         <v>160</v>
       </c>
@@ -13533,7 +13534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
         <v>162</v>
       </c>
@@ -13571,7 +13572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" s="3">
         <v>165</v>
       </c>
@@ -13609,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
         <v>167</v>
       </c>
@@ -13647,7 +13648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" s="3">
         <v>169</v>
       </c>
@@ -13685,7 +13686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" s="3">
         <v>172</v>
       </c>
@@ -13723,7 +13724,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" s="3">
         <v>174</v>
       </c>
@@ -13761,7 +13762,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" s="3">
         <v>160</v>
       </c>
@@ -13799,7 +13800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" s="3">
         <v>162</v>
       </c>
@@ -13837,7 +13838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" s="3">
         <v>165</v>
       </c>
@@ -13875,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" s="3">
         <v>167</v>
       </c>
@@ -13913,7 +13914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
         <v>169</v>
       </c>
@@ -13951,7 +13952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338" s="3">
         <v>172</v>
       </c>
@@ -13989,7 +13990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
         <v>174</v>
       </c>
@@ -14027,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A340" s="3">
         <v>176</v>
       </c>
@@ -14065,7 +14066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
         <v>183</v>
       </c>
@@ -14103,7 +14104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342" s="3">
         <v>160</v>
       </c>
@@ -14141,7 +14142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
         <v>162</v>
       </c>
@@ -14179,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344" s="3">
         <v>165</v>
       </c>
@@ -14217,7 +14218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
         <v>167</v>
       </c>
@@ -14255,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346" s="3">
         <v>169</v>
       </c>
@@ -14293,7 +14294,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347" s="3">
         <v>172</v>
       </c>
@@ -14331,7 +14332,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348" s="3">
         <v>174</v>
       </c>
@@ -14369,7 +14370,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
         <v>176</v>
       </c>
@@ -14407,7 +14408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350" s="3">
         <v>183</v>
       </c>
@@ -14445,7 +14446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
         <v>160</v>
       </c>
@@ -14483,7 +14484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352" s="3">
         <v>162</v>
       </c>
@@ -14521,7 +14522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
         <v>165</v>
       </c>
@@ -14559,7 +14560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354" s="3">
         <v>167</v>
       </c>
@@ -14597,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" s="3">
         <v>169</v>
       </c>
@@ -14635,7 +14636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356" s="3">
         <v>172</v>
       </c>
@@ -14673,7 +14674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357" s="3">
         <v>174</v>
       </c>
@@ -14711,7 +14712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358" s="3">
         <v>162</v>
       </c>
@@ -14749,7 +14750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359" s="3">
         <v>165</v>
       </c>
@@ -14787,7 +14788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360" s="3">
         <v>158</v>
       </c>
@@ -14825,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361" s="3">
         <v>160</v>
       </c>
@@ -14863,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362" s="3">
         <v>162</v>
       </c>
@@ -14901,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363" s="3">
         <v>165</v>
       </c>
@@ -14939,7 +14940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364" s="3">
         <v>167</v>
       </c>
@@ -14977,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365" s="3">
         <v>169</v>
       </c>
@@ -15015,7 +15016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366" s="3">
         <v>172</v>
       </c>
@@ -15053,7 +15054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367" s="3">
         <v>174</v>
       </c>
@@ -15091,7 +15092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368" s="3">
         <v>162</v>
       </c>
@@ -15129,7 +15130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369" s="3">
         <v>165</v>
       </c>
@@ -15167,7 +15168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370" s="3">
         <v>167</v>
       </c>
@@ -15205,7 +15206,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371" s="3">
         <v>169</v>
       </c>
@@ -15243,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372" s="3">
         <v>172</v>
       </c>
@@ -15281,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373" s="3">
         <v>174</v>
       </c>
@@ -15319,7 +15320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374" s="3">
         <v>176</v>
       </c>
@@ -15357,7 +15358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375" s="3">
         <v>183</v>
       </c>
@@ -15395,7 +15396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376" s="3">
         <v>162</v>
       </c>
@@ -15433,7 +15434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377" s="3">
         <v>165</v>
       </c>
@@ -15471,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378" s="3">
         <v>167</v>
       </c>
@@ -15509,7 +15510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379" s="3">
         <v>169</v>
       </c>
@@ -15547,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380" s="3">
         <v>172</v>
       </c>
@@ -15585,7 +15586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381" s="3">
         <v>174</v>
       </c>
@@ -15623,7 +15624,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382" s="3">
         <v>160</v>
       </c>
@@ -15661,7 +15662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383" s="3">
         <v>162</v>
       </c>
@@ -15699,7 +15700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384" s="3">
         <v>160</v>
       </c>
@@ -15737,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A385" s="3">
         <v>162</v>
       </c>
@@ -15775,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A386" s="3">
         <v>165</v>
       </c>
@@ -15813,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A387" s="3">
         <v>167</v>
       </c>
@@ -15851,7 +15852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A388" s="3">
         <v>169</v>
       </c>
@@ -15889,7 +15890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A389" s="3">
         <v>172</v>
       </c>
@@ -15927,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A390" s="3">
         <v>174</v>
       </c>
@@ -15965,7 +15966,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A391" s="3">
         <v>160</v>
       </c>
@@ -16003,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A392" s="3">
         <v>162</v>
       </c>
@@ -16041,7 +16042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A393" s="3">
         <v>162</v>
       </c>
@@ -16079,7 +16080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A394" s="3">
         <v>165</v>
       </c>
@@ -16117,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A395" s="3">
         <v>167</v>
       </c>
@@ -16155,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A396" s="3">
         <v>169</v>
       </c>
@@ -16193,7 +16194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A397" s="3">
         <v>172</v>
       </c>
@@ -16231,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A398" s="3">
         <v>174</v>
       </c>
@@ -16269,7 +16270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A399" s="3">
         <v>176</v>
       </c>
@@ -16307,7 +16308,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A400" s="3">
         <v>183</v>
       </c>
@@ -16345,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A401" s="3">
         <v>160</v>
       </c>
@@ -16383,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A402" s="3">
         <v>162</v>
       </c>
@@ -16421,7 +16422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A403" s="3">
         <v>165</v>
       </c>
@@ -16459,7 +16460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A404" s="3">
         <v>167</v>
       </c>
@@ -16497,7 +16498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A405" s="3">
         <v>169</v>
       </c>
@@ -16535,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A406" s="3">
         <v>172</v>
       </c>
@@ -16573,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A407" s="3">
         <v>174</v>
       </c>
@@ -16611,7 +16612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A408" s="3">
         <v>176</v>
       </c>
@@ -16649,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A409" s="3">
         <v>183</v>
       </c>
@@ -16687,7 +16688,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A410" s="3">
         <v>160</v>
       </c>
@@ -16725,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A411" s="3">
         <v>162</v>
       </c>
@@ -16763,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A412" s="3">
         <v>165</v>
       </c>
@@ -16801,7 +16802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A413" s="3">
         <v>167</v>
       </c>
@@ -16839,7 +16840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A414" s="3">
         <v>169</v>
       </c>
@@ -16877,7 +16878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A415" s="3">
         <v>172</v>
       </c>
@@ -16915,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A416" s="3">
         <v>174</v>
       </c>
@@ -16953,7 +16954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A417" s="3">
         <v>176</v>
       </c>
@@ -16991,7 +16992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A418" s="3">
         <v>183</v>
       </c>
@@ -17029,7 +17030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A419" s="3">
         <v>176</v>
       </c>
@@ -17067,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A420" s="3">
         <v>183</v>
       </c>
@@ -17105,7 +17106,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A421" s="3">
         <v>158</v>
       </c>
@@ -17143,7 +17144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A422" s="3">
         <v>160</v>
       </c>
@@ -17181,7 +17182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423" s="3">
         <v>162</v>
       </c>
@@ -17219,7 +17220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A424" s="3">
         <v>165</v>
       </c>
@@ -17257,7 +17258,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A425" s="3">
         <v>167</v>
       </c>
@@ -17295,7 +17296,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A426" s="3">
         <v>174</v>
       </c>
@@ -17333,7 +17334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A427" s="3">
         <v>158</v>
       </c>
@@ -17371,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A428" s="3">
         <v>160</v>
       </c>
@@ -17409,7 +17410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A429" s="3">
         <v>162</v>
       </c>
@@ -17447,7 +17448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A430" s="3">
         <v>165</v>
       </c>
@@ -17485,7 +17486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A431" s="3">
         <v>167</v>
       </c>
@@ -17523,7 +17524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A432" s="3">
         <v>169</v>
       </c>
@@ -17561,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A433" s="3">
         <v>172</v>
       </c>
@@ -17599,7 +17600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A434" s="3">
         <v>174</v>
       </c>
@@ -17637,7 +17638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A435" s="3">
         <v>176</v>
       </c>
@@ -17675,7 +17676,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A436" s="3">
         <v>183</v>
       </c>
@@ -17713,7 +17714,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A437" s="3">
         <v>165</v>
       </c>
@@ -17751,7 +17752,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A438" s="3">
         <v>167</v>
       </c>
@@ -17789,7 +17790,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A439" s="3">
         <v>169</v>
       </c>
@@ -17827,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A440" s="3">
         <v>172</v>
       </c>
@@ -17865,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A441" s="3">
         <v>174</v>
       </c>
@@ -17903,7 +17904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A442" s="3">
         <v>176</v>
       </c>
@@ -17941,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A443" s="3">
         <v>183</v>
       </c>
@@ -17979,7 +17980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A444" s="3">
         <v>160</v>
       </c>
@@ -18017,7 +18018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A445" s="3">
         <v>162</v>
       </c>
@@ -18055,7 +18056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A446" s="3">
         <v>165</v>
       </c>
@@ -18093,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A447" s="3">
         <v>167</v>
       </c>
@@ -18131,7 +18132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A448" s="3">
         <v>169</v>
       </c>
@@ -18169,7 +18170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A449" s="3">
         <v>172</v>
       </c>
@@ -18207,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A450" s="3">
         <v>174</v>
       </c>
@@ -18245,7 +18246,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A451" s="3">
         <v>176</v>
       </c>
@@ -18283,7 +18284,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A452" s="3">
         <v>183</v>
       </c>
@@ -18321,7 +18322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A453" s="3">
         <v>160</v>
       </c>
@@ -18359,7 +18360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A454" s="3">
         <v>162</v>
       </c>
@@ -18397,7 +18398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A455" s="3">
         <v>165</v>
       </c>
@@ -18435,7 +18436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A456" s="3">
         <v>167</v>
       </c>
@@ -18473,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A457" s="3">
         <v>169</v>
       </c>
@@ -18511,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A458" s="3">
         <v>172</v>
       </c>
@@ -18549,7 +18550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A459" s="3">
         <v>174</v>
       </c>
@@ -18587,7 +18588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A460" s="3">
         <v>176</v>
       </c>
@@ -18625,7 +18626,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A461" s="3">
         <v>183</v>
       </c>
@@ -18663,7 +18664,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A462" s="3">
         <v>160</v>
       </c>
@@ -18701,7 +18702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A463" s="3">
         <v>162</v>
       </c>
@@ -18739,7 +18740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A464" s="3">
         <v>165</v>
       </c>
@@ -18777,7 +18778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A465" s="3">
         <v>167</v>
       </c>
@@ -18815,7 +18816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A466" s="3">
         <v>169</v>
       </c>
@@ -18853,7 +18854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A467" s="3">
         <v>160</v>
       </c>
@@ -18891,7 +18892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A468" s="3">
         <v>162</v>
       </c>
@@ -18929,7 +18930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A469" s="3">
         <v>165</v>
       </c>
@@ -18967,7 +18968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A470" s="3">
         <v>167</v>
       </c>
@@ -19005,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A471" s="3">
         <v>169</v>
       </c>
@@ -19043,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A472" s="3">
         <v>172</v>
       </c>
@@ -19081,7 +19082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A473" s="3">
         <v>174</v>
       </c>
@@ -19119,7 +19120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A474" s="3">
         <v>176</v>
       </c>
@@ -19157,7 +19158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A475" s="3">
         <v>183</v>
       </c>
@@ -19195,7 +19196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A476" s="3">
         <v>160</v>
       </c>
@@ -19233,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A477" s="3">
         <v>162</v>
       </c>
@@ -19271,7 +19272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A478" s="3">
         <v>165</v>
       </c>
@@ -19309,7 +19310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A479" s="3">
         <v>167</v>
       </c>
@@ -19347,7 +19348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A480" s="3">
         <v>169</v>
       </c>
@@ -19385,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A481" s="3">
         <v>162</v>
       </c>
@@ -19423,7 +19424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A482" s="3">
         <v>165</v>
       </c>
@@ -19461,7 +19462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A483" s="3">
         <v>167</v>
       </c>
@@ -19499,7 +19500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A484" s="3">
         <v>169</v>
       </c>
@@ -19537,7 +19538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A485" s="3">
         <v>172</v>
       </c>
@@ -19575,7 +19576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A486" s="3">
         <v>174</v>
       </c>
@@ -19613,7 +19614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A487" s="3">
         <v>176</v>
       </c>
@@ -19651,7 +19652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A488" s="3">
         <v>183</v>
       </c>
@@ -19689,7 +19690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A489" s="3">
         <v>160</v>
       </c>
@@ -19727,7 +19728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A490" s="3">
         <v>162</v>
       </c>
@@ -19765,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A491" s="3">
         <v>165</v>
       </c>
@@ -19803,7 +19804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A492" s="3">
         <v>167</v>
       </c>
@@ -19841,7 +19842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A493" s="3">
         <v>169</v>
       </c>
@@ -19879,7 +19880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A494" s="3">
         <v>172</v>
       </c>
@@ -19917,7 +19918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A495" s="3">
         <v>174</v>
       </c>
@@ -19955,7 +19956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A496" s="3">
         <v>176</v>
       </c>
@@ -19993,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A497" s="3">
         <v>183</v>
       </c>
@@ -20031,7 +20032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A498" s="3">
         <v>160</v>
       </c>
@@ -20069,7 +20070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A499" s="3">
         <v>162</v>
       </c>
@@ -20107,7 +20108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A500" s="3">
         <v>165</v>
       </c>
@@ -20145,7 +20146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A501" s="3">
         <v>167</v>
       </c>
@@ -20183,7 +20184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A502" s="3">
         <v>169</v>
       </c>
@@ -20221,7 +20222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A503" s="3">
         <v>160</v>
       </c>
@@ -20259,7 +20260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A504" s="3">
         <v>162</v>
       </c>
@@ -20297,7 +20298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A505" s="3">
         <v>165</v>
       </c>
@@ -20335,7 +20336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A506" s="3">
         <v>167</v>
       </c>
@@ -20373,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A507" s="3">
         <v>169</v>
       </c>
@@ -20411,7 +20412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A508" s="3">
         <v>172</v>
       </c>
@@ -20449,7 +20450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A509" s="3">
         <v>174</v>
       </c>
@@ -20487,7 +20488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A510" s="3">
         <v>176</v>
       </c>
@@ -20525,7 +20526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A511" s="3">
         <v>183</v>
       </c>
@@ -20563,7 +20564,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A512" s="3">
         <v>160</v>
       </c>
@@ -20601,7 +20602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A513" s="3">
         <v>162</v>
       </c>
@@ -20639,7 +20640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A514" s="3">
         <v>165</v>
       </c>
@@ -20677,7 +20678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A515" s="3">
         <v>167</v>
       </c>
@@ -20715,7 +20716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A516" s="3">
         <v>169</v>
       </c>
@@ -20753,7 +20754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A517" s="3">
         <v>172</v>
       </c>
@@ -20791,7 +20792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A518" s="3">
         <v>160</v>
       </c>
@@ -20829,7 +20830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A519" s="3">
         <v>162</v>
       </c>
@@ -20867,7 +20868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A520" s="3">
         <v>165</v>
       </c>
@@ -20905,7 +20906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A521" s="3">
         <v>167</v>
       </c>
@@ -20943,7 +20944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A522" s="3">
         <v>169</v>
       </c>
@@ -20981,7 +20982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A523" s="3">
         <v>172</v>
       </c>
@@ -21019,7 +21020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A524" s="3">
         <v>174</v>
       </c>
@@ -21057,7 +21058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A525" s="3">
         <v>176</v>
       </c>
@@ -21095,7 +21096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A526" s="3">
         <v>183</v>
       </c>
@@ -21133,7 +21134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A527" s="3">
         <v>162</v>
       </c>
@@ -21171,7 +21172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A528" s="3">
         <v>165</v>
       </c>
@@ -21209,7 +21210,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A529" s="3">
         <v>162</v>
       </c>
@@ -21247,7 +21248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A530" s="3">
         <v>165</v>
       </c>
@@ -21285,7 +21286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A531" s="3">
         <v>162</v>
       </c>
@@ -21323,7 +21324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A532" s="3">
         <v>165</v>
       </c>
@@ -21361,7 +21362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A533" s="3">
         <v>167</v>
       </c>
@@ -21399,7 +21400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A534" s="3">
         <v>169</v>
       </c>
@@ -21437,7 +21438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A535" s="3">
         <v>172</v>
       </c>
@@ -21475,7 +21476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A536" s="3">
         <v>174</v>
       </c>
@@ -21513,7 +21514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A537" s="3">
         <v>176</v>
       </c>
@@ -21551,7 +21552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A538" s="3">
         <v>183</v>
       </c>
@@ -21589,7 +21590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A539" s="3">
         <v>162</v>
       </c>
@@ -21627,7 +21628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A540" s="3">
         <v>165</v>
       </c>
@@ -21665,7 +21666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A541" s="3">
         <v>167</v>
       </c>
@@ -21703,7 +21704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A542" s="3">
         <v>169</v>
       </c>
@@ -21741,7 +21742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A543" s="3">
         <v>172</v>
       </c>
@@ -21779,7 +21780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A544" s="3">
         <v>174</v>
       </c>
@@ -21817,7 +21818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A545" s="3">
         <v>176</v>
       </c>
@@ -21855,7 +21856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A546" s="3">
         <v>183</v>
       </c>
@@ -21893,7 +21894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A547" s="3">
         <v>160</v>
       </c>
@@ -21931,7 +21932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A548" s="3">
         <v>162</v>
       </c>
@@ -21969,7 +21970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A549" s="3">
         <v>165</v>
       </c>
@@ -22007,7 +22008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A550" s="3">
         <v>167</v>
       </c>
@@ -22045,7 +22046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A551" s="3">
         <v>169</v>
       </c>
@@ -22083,7 +22084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A552" s="3">
         <v>172</v>
       </c>
@@ -22121,7 +22122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A553" s="3">
         <v>174</v>
       </c>
@@ -22159,7 +22160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A554" s="3">
         <v>176</v>
       </c>
@@ -22197,7 +22198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A555" s="3">
         <v>183</v>
       </c>
@@ -22235,7 +22236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A556" s="3">
         <v>165</v>
       </c>
@@ -22273,7 +22274,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A557" s="3">
         <v>167</v>
       </c>
@@ -22311,7 +22312,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A558" s="3">
         <v>169</v>
       </c>
@@ -22349,7 +22350,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A559" s="3">
         <v>160</v>
       </c>
@@ -22387,7 +22388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A560" s="3">
         <v>162</v>
       </c>
@@ -22425,7 +22426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A561" s="3">
         <v>165</v>
       </c>
@@ -22463,7 +22464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A562" s="3">
         <v>167</v>
       </c>
@@ -22501,7 +22502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A563" s="3">
         <v>169</v>
       </c>
@@ -22539,7 +22540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A564" s="3">
         <v>172</v>
       </c>
@@ -22577,7 +22578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A565" s="3">
         <v>174</v>
       </c>
@@ -22615,7 +22616,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A566" s="3">
         <v>160</v>
       </c>
@@ -22653,7 +22654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A567" s="3">
         <v>162</v>
       </c>
@@ -22691,7 +22692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A568" s="3">
         <v>165</v>
       </c>
@@ -22729,7 +22730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A569" s="3">
         <v>167</v>
       </c>
@@ -22767,7 +22768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A570" s="3">
         <v>169</v>
       </c>
@@ -22805,7 +22806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A571" s="3">
         <v>172</v>
       </c>
@@ -22843,7 +22844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A572" s="3">
         <v>174</v>
       </c>
@@ -22881,7 +22882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A573" s="3">
         <v>176</v>
       </c>
@@ -22919,7 +22920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A574" s="3">
         <v>183</v>
       </c>
@@ -22957,7 +22958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A575" s="3">
         <v>165</v>
       </c>
@@ -22995,7 +22996,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A576" s="3">
         <v>167</v>
       </c>
@@ -23033,7 +23034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A577" s="3">
         <v>169</v>
       </c>
@@ -23071,7 +23072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A578" s="3">
         <v>165</v>
       </c>
@@ -23109,7 +23110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A579" s="3">
         <v>167</v>
       </c>
@@ -23147,7 +23148,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A580" s="3">
         <v>169</v>
       </c>
@@ -23185,7 +23186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A581" s="3">
         <v>172</v>
       </c>
@@ -23223,7 +23224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A582" s="3">
         <v>174</v>
       </c>
@@ -23261,7 +23262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A583" s="3">
         <v>176</v>
       </c>
@@ -23299,7 +23300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A584" s="3">
         <v>183</v>
       </c>
@@ -23337,7 +23338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A585" s="3">
         <v>160</v>
       </c>
@@ -23375,7 +23376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A586" s="3">
         <v>162</v>
       </c>
@@ -23413,7 +23414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A587" s="3">
         <v>165</v>
       </c>
@@ -23451,7 +23452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A588" s="3">
         <v>167</v>
       </c>
@@ -23489,7 +23490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A589" s="3">
         <v>169</v>
       </c>
@@ -23527,7 +23528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A590" s="3">
         <v>172</v>
       </c>
@@ -23565,7 +23566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A591" s="3">
         <v>174</v>
       </c>
@@ -23603,7 +23604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A592" s="3">
         <v>176</v>
       </c>
@@ -23641,7 +23642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A593" s="3">
         <v>183</v>
       </c>
@@ -23679,7 +23680,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A594" s="3">
         <v>165</v>
       </c>
@@ -23717,7 +23718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A595" s="3">
         <v>167</v>
       </c>
@@ -23755,7 +23756,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A596" s="3">
         <v>169</v>
       </c>
@@ -23793,7 +23794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A597" s="3">
         <v>172</v>
       </c>
@@ -23831,7 +23832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A598" s="3">
         <v>174</v>
       </c>
@@ -23869,7 +23870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A599" s="3">
         <v>176</v>
       </c>
@@ -23907,7 +23908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A600" s="3">
         <v>183</v>
       </c>
@@ -23945,7 +23946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A601" s="3">
         <v>160</v>
       </c>
@@ -23983,7 +23984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A602" s="3">
         <v>162</v>
       </c>
@@ -24021,7 +24022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A603" s="3">
         <v>165</v>
       </c>
@@ -24059,7 +24060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A604" s="3">
         <v>167</v>
       </c>
@@ -24097,7 +24098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A605" s="3">
         <v>169</v>
       </c>
@@ -24135,7 +24136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A606" s="3">
         <v>172</v>
       </c>
@@ -24173,7 +24174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A607" s="3">
         <v>174</v>
       </c>
@@ -24211,7 +24212,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A608" s="3">
         <v>162</v>
       </c>
@@ -24249,7 +24250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A609" s="3">
         <v>165</v>
       </c>
@@ -24287,7 +24288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A610" s="3">
         <v>167</v>
       </c>
@@ -24325,7 +24326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A611" s="3">
         <v>169</v>
       </c>
@@ -24363,7 +24364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A612" s="3">
         <v>172</v>
       </c>
@@ -24401,7 +24402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A613" s="3">
         <v>174</v>
       </c>
@@ -24439,7 +24440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A614" s="3">
         <v>176</v>
       </c>
@@ -24477,7 +24478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A615" s="3">
         <v>183</v>
       </c>
@@ -24515,7 +24516,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A616" s="3">
         <v>160</v>
       </c>
@@ -24553,7 +24554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A617" s="3">
         <v>162</v>
       </c>
@@ -24591,7 +24592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A618" s="3">
         <v>165</v>
       </c>
@@ -24629,7 +24630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A619" s="3">
         <v>160</v>
       </c>
@@ -24667,7 +24668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A620" s="3">
         <v>162</v>
       </c>
@@ -24705,7 +24706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A621" s="3">
         <v>165</v>
       </c>
@@ -24743,7 +24744,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A622" s="3">
         <v>167</v>
       </c>
@@ -24781,7 +24782,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A623" s="3">
         <v>169</v>
       </c>
@@ -24819,7 +24820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A624" s="3">
         <v>165</v>
       </c>
@@ -24857,7 +24858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A625" s="3">
         <v>167</v>
       </c>
@@ -24895,7 +24896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A626" s="3">
         <v>169</v>
       </c>
@@ -24933,7 +24934,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A627" s="3">
         <v>160</v>
       </c>
@@ -24971,7 +24972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A628" s="3">
         <v>162</v>
       </c>
@@ -25009,7 +25010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A629" s="3">
         <v>165</v>
       </c>
@@ -25047,7 +25048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A630" s="3">
         <v>167</v>
       </c>
@@ -25085,7 +25086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A631" s="3">
         <v>169</v>
       </c>
@@ -25123,7 +25124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A632" s="3">
         <v>160</v>
       </c>
@@ -25161,7 +25162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A633" s="3">
         <v>162</v>
       </c>
@@ -25199,7 +25200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A634" s="3">
         <v>165</v>
       </c>
@@ -25237,7 +25238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A635" s="3">
         <v>158</v>
       </c>
@@ -25275,7 +25276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A636" s="3">
         <v>160</v>
       </c>
@@ -25313,7 +25314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A637" s="3">
         <v>162</v>
       </c>
@@ -25351,7 +25352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A638" s="3">
         <v>165</v>
       </c>
@@ -25389,7 +25390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A639" s="3">
         <v>167</v>
       </c>
@@ -25427,7 +25428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A640" s="3">
         <v>169</v>
       </c>
@@ -25465,7 +25466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A641" s="3">
         <v>172</v>
       </c>
@@ -25503,7 +25504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A642" s="3">
         <v>174</v>
       </c>
@@ -25541,7 +25542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A643" s="3">
         <v>176</v>
       </c>
@@ -25579,7 +25580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A644" s="3">
         <v>183</v>
       </c>
@@ -25617,7 +25618,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A645" s="3">
         <v>160</v>
       </c>
@@ -25655,7 +25656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A646" s="3">
         <v>162</v>
       </c>
@@ -25693,7 +25694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A647" s="3">
         <v>165</v>
       </c>
@@ -25731,7 +25732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A648" s="3">
         <v>160</v>
       </c>
@@ -25769,7 +25770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A649" s="3">
         <v>162</v>
       </c>
@@ -25807,7 +25808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A650" s="3">
         <v>165</v>
       </c>
@@ -25845,7 +25846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A651" s="3">
         <v>160</v>
       </c>
@@ -25883,7 +25884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A652" s="3">
         <v>162</v>
       </c>
@@ -25921,7 +25922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A653" s="3">
         <v>165</v>
       </c>
@@ -25959,7 +25960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A654" s="3">
         <v>160</v>
       </c>
@@ -25997,7 +25998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A655" s="3">
         <v>162</v>
       </c>
@@ -26035,7 +26036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A656" s="3">
         <v>165</v>
       </c>
@@ -26073,7 +26074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A657" s="3">
         <v>160</v>
       </c>
@@ -26111,7 +26112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A658" s="3">
         <v>162</v>
       </c>
@@ -26149,7 +26150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A659" s="3">
         <v>165</v>
       </c>
@@ -26187,7 +26188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A660" s="3">
         <v>167</v>
       </c>
@@ -26225,7 +26226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A661" s="3">
         <v>169</v>
       </c>
@@ -26263,7 +26264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A662" s="3">
         <v>172</v>
       </c>
@@ -26301,7 +26302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A663" s="3">
         <v>174</v>
       </c>
@@ -26339,7 +26340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A664" s="3">
         <v>176</v>
       </c>
@@ -26377,7 +26378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A665" s="3">
         <v>183</v>
       </c>
@@ -26415,7 +26416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A666" s="3">
         <v>162</v>
       </c>
@@ -26453,7 +26454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A667" s="3">
         <v>165</v>
       </c>
@@ -26491,7 +26492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A668" s="3">
         <v>167</v>
       </c>
@@ -26529,7 +26530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A669" s="3">
         <v>169</v>
       </c>
@@ -26567,7 +26568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A670" s="3">
         <v>172</v>
       </c>
@@ -26605,7 +26606,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A671" s="3">
         <v>174</v>
       </c>
@@ -26643,7 +26644,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A672" s="3">
         <v>176</v>
       </c>
@@ -26681,7 +26682,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A673" s="3">
         <v>183</v>
       </c>
@@ -26719,7 +26720,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A674" s="3">
         <v>158</v>
       </c>
@@ -26757,7 +26758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A675" s="3">
         <v>160</v>
       </c>
@@ -26795,7 +26796,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A676" s="3">
         <v>162</v>
       </c>
@@ -26833,7 +26834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A677" s="3">
         <v>165</v>
       </c>
@@ -26871,7 +26872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A678" s="3">
         <v>167</v>
       </c>
@@ -26909,7 +26910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A679" s="3">
         <v>160</v>
       </c>
@@ -26947,7 +26948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A680" s="3">
         <v>162</v>
       </c>
@@ -26985,7 +26986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A681" s="3">
         <v>165</v>
       </c>
@@ -27023,7 +27024,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A682" s="3">
         <v>167</v>
       </c>
@@ -27061,7 +27062,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A683" s="3">
         <v>169</v>
       </c>
@@ -27099,7 +27100,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A684" s="3">
         <v>158</v>
       </c>
@@ -27137,7 +27138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A685" s="3">
         <v>160</v>
       </c>
@@ -27175,7 +27176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A686" s="3">
         <v>162</v>
       </c>
@@ -27213,7 +27214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A687" s="3">
         <v>165</v>
       </c>
@@ -27251,7 +27252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A688" s="3">
         <v>158</v>
       </c>
@@ -27289,7 +27290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A689" s="3">
         <v>160</v>
       </c>
@@ -27327,7 +27328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A690" s="3">
         <v>162</v>
       </c>
@@ -27365,7 +27366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A691" s="3">
         <v>165</v>
       </c>
@@ -27403,7 +27404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A692" s="3">
         <v>162</v>
       </c>
@@ -27441,7 +27442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A693" s="3">
         <v>165</v>
       </c>
@@ -27479,7 +27480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A694" s="3">
         <v>162</v>
       </c>
@@ -27517,7 +27518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A695" s="3">
         <v>165</v>
       </c>
@@ -27555,7 +27556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A696" s="3">
         <v>167</v>
       </c>
@@ -27593,7 +27594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A697" s="3">
         <v>169</v>
       </c>
@@ -27631,7 +27632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A698" s="3">
         <v>172</v>
       </c>
@@ -27669,7 +27670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A699" s="3">
         <v>174</v>
       </c>
@@ -27707,7 +27708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A700" s="3">
         <v>176</v>
       </c>
@@ -27745,7 +27746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A701" s="3">
         <v>183</v>
       </c>
@@ -27783,7 +27784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A702" s="3">
         <v>160</v>
       </c>
@@ -27821,7 +27822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A703" s="3">
         <v>162</v>
       </c>
@@ -27859,7 +27860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A704" s="3">
         <v>165</v>
       </c>
@@ -27897,7 +27898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A705" s="3">
         <v>167</v>
       </c>
@@ -27935,7 +27936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A706" s="3">
         <v>169</v>
       </c>
@@ -27973,7 +27974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A707" s="3">
         <v>172</v>
       </c>
@@ -28011,7 +28012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A708" s="3">
         <v>174</v>
       </c>
@@ -28049,7 +28050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A709" s="3">
         <v>176</v>
       </c>
@@ -28087,7 +28088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A710" s="3">
         <v>183</v>
       </c>
@@ -28125,7 +28126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A711" s="3">
         <v>160</v>
       </c>
@@ -28163,7 +28164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A712" s="3">
         <v>162</v>
       </c>
@@ -28201,7 +28202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A713" s="3">
         <v>165</v>
       </c>
@@ -28239,7 +28240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A714" s="3">
         <v>167</v>
       </c>
@@ -28277,7 +28278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A715" s="3">
         <v>169</v>
       </c>
@@ -28315,7 +28316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A716" s="3">
         <v>172</v>
       </c>
@@ -28353,7 +28354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A717" s="3">
         <v>174</v>
       </c>
@@ -28391,7 +28392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A718" s="3">
         <v>176</v>
       </c>
@@ -28429,7 +28430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A719" s="3">
         <v>183</v>
       </c>
@@ -28467,7 +28468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A720" s="3">
         <v>162</v>
       </c>
@@ -28505,7 +28506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A721" s="3">
         <v>165</v>
       </c>
@@ -28543,7 +28544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A722" s="3">
         <v>167</v>
       </c>
@@ -28581,7 +28582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A723" s="3">
         <v>169</v>
       </c>
@@ -28619,7 +28620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A724" s="3">
         <v>172</v>
       </c>
@@ -28657,7 +28658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A725" s="3">
         <v>174</v>
       </c>
@@ -28695,7 +28696,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A726" s="3">
         <v>160</v>
       </c>
@@ -28733,7 +28734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A727" s="3">
         <v>162</v>
       </c>
@@ -28771,7 +28772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A728" s="3">
         <v>165</v>
       </c>
@@ -28809,7 +28810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A729" s="3">
         <v>160</v>
       </c>
@@ -28847,7 +28848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A730" s="3">
         <v>162</v>
       </c>
@@ -28885,7 +28886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A731" s="3">
         <v>165</v>
       </c>
@@ -28923,7 +28924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A732" s="3">
         <v>167</v>
       </c>
@@ -28961,7 +28962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A733" s="3">
         <v>169</v>
       </c>
@@ -28999,7 +29000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A734" s="3">
         <v>172</v>
       </c>
@@ -29037,7 +29038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A735" s="3">
         <v>174</v>
       </c>
@@ -29075,7 +29076,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A736" s="3">
         <v>176</v>
       </c>
@@ -29113,7 +29114,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A737" s="3">
         <v>183</v>
       </c>
@@ -29151,7 +29152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A738" s="3">
         <v>160</v>
       </c>
@@ -29189,7 +29190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A739" s="3">
         <v>162</v>
       </c>
@@ -29227,7 +29228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A740" s="3">
         <v>165</v>
       </c>
@@ -29265,7 +29266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A741" s="3">
         <v>167</v>
       </c>
@@ -29303,7 +29304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A742" s="3">
         <v>169</v>
       </c>
@@ -29341,7 +29342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A743" s="3">
         <v>172</v>
       </c>
@@ -29379,7 +29380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A744" s="3">
         <v>174</v>
       </c>
@@ -29417,7 +29418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A745" s="3">
         <v>176</v>
       </c>
@@ -29455,7 +29456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A746" s="3">
         <v>183</v>
       </c>
@@ -29493,7 +29494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A747" s="3">
         <v>160</v>
       </c>
@@ -29531,7 +29532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A748" s="3">
         <v>162</v>
       </c>
@@ -29569,7 +29570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A749" s="3">
         <v>165</v>
       </c>
@@ -29607,7 +29608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A750" s="3">
         <v>167</v>
       </c>
@@ -29645,7 +29646,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="751" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A751" s="3">
         <v>169</v>
       </c>
@@ -29683,7 +29684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A752" s="3">
         <v>172</v>
       </c>
@@ -29721,7 +29722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A753" s="3">
         <v>160</v>
       </c>
@@ -29759,7 +29760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A754" s="3">
         <v>162</v>
       </c>
@@ -29797,7 +29798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A755" s="3">
         <v>165</v>
       </c>
@@ -29835,7 +29836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A756" s="3">
         <v>167</v>
       </c>
@@ -29873,7 +29874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A757" s="3">
         <v>169</v>
       </c>
@@ -29911,7 +29912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A758" s="3">
         <v>172</v>
       </c>
@@ -29949,7 +29950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A759" s="3">
         <v>174</v>
       </c>
@@ -29987,7 +29988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A760" s="3">
         <v>176</v>
       </c>
@@ -30025,7 +30026,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A761" s="3">
         <v>183</v>
       </c>
@@ -30063,7 +30064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A762" s="3">
         <v>160</v>
       </c>
@@ -30101,7 +30102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A763" s="3">
         <v>162</v>
       </c>
@@ -30139,7 +30140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A764" s="3">
         <v>165</v>
       </c>
@@ -30177,7 +30178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A765" s="3">
         <v>167</v>
       </c>
@@ -30215,7 +30216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A766" s="3">
         <v>169</v>
       </c>
@@ -30253,7 +30254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A767" s="3">
         <v>172</v>
       </c>
@@ -30291,7 +30292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A768" s="3">
         <v>174</v>
       </c>
@@ -30329,7 +30330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A769" s="3">
         <v>176</v>
       </c>
@@ -30367,7 +30368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A770" s="3">
         <v>183</v>
       </c>
@@ -30405,7 +30406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A771" s="3">
         <v>160</v>
       </c>
@@ -30443,7 +30444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A772" s="3">
         <v>162</v>
       </c>
@@ -30481,7 +30482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A773" s="3">
         <v>165</v>
       </c>
@@ -30519,7 +30520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A774" s="3">
         <v>167</v>
       </c>
@@ -30557,7 +30558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A775" s="3">
         <v>169</v>
       </c>
@@ -30595,7 +30596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A776" s="3">
         <v>172</v>
       </c>
@@ -30633,7 +30634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A777" s="3">
         <v>174</v>
       </c>
@@ -30671,7 +30672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A778" s="3">
         <v>176</v>
       </c>
@@ -30709,7 +30710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A779" s="3">
         <v>183</v>
       </c>
@@ -30747,7 +30748,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A780" s="3">
         <v>160</v>
       </c>
@@ -30785,7 +30786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A781" s="3">
         <v>162</v>
       </c>
@@ -30823,7 +30824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A782" s="3">
         <v>165</v>
       </c>
@@ -30861,7 +30862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A783" s="3">
         <v>167</v>
       </c>
@@ -30899,7 +30900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A784" s="3">
         <v>169</v>
       </c>
@@ -30937,7 +30938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A785" s="3">
         <v>160</v>
       </c>
@@ -30975,7 +30976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A786" s="3">
         <v>162</v>
       </c>
@@ -31013,7 +31014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A787" s="3">
         <v>165</v>
       </c>
@@ -31051,7 +31052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A788" s="3">
         <v>167</v>
       </c>
@@ -31089,7 +31090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A789" s="3">
         <v>169</v>
       </c>
@@ -31127,7 +31128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A790" s="3">
         <v>172</v>
       </c>
@@ -31165,7 +31166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A791" s="3">
         <v>174</v>
       </c>
@@ -31203,7 +31204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A792" s="3">
         <v>176</v>
       </c>
@@ -31241,7 +31242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A793" s="3">
         <v>183</v>
       </c>
@@ -31279,7 +31280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A794" s="3">
         <v>160</v>
       </c>
@@ -31317,7 +31318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A795" s="3">
         <v>162</v>
       </c>
@@ -31355,7 +31356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A796" s="3">
         <v>165</v>
       </c>
@@ -31393,7 +31394,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A797" s="3">
         <v>167</v>
       </c>
@@ -31431,7 +31432,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="798" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A798" s="3">
         <v>169</v>
       </c>
@@ -31469,7 +31470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A799" s="3">
         <v>172</v>
       </c>
@@ -31507,7 +31508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A800" s="3">
         <v>174</v>
       </c>
@@ -31545,7 +31546,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="801" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A801" s="3">
         <v>158</v>
       </c>
@@ -31583,7 +31584,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="802" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A802" s="3">
         <v>160</v>
       </c>
@@ -31621,7 +31622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A803" s="3">
         <v>162</v>
       </c>
@@ -31659,7 +31660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A804" s="3">
         <v>165</v>
       </c>
@@ -31697,7 +31698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A805" s="3">
         <v>162</v>
       </c>
@@ -31735,7 +31736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A806" s="3">
         <v>165</v>
       </c>
@@ -31773,7 +31774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A807" s="3">
         <v>167</v>
       </c>
@@ -31811,7 +31812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A808" s="3">
         <v>169</v>
       </c>
@@ -31849,7 +31850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A809" s="3">
         <v>172</v>
       </c>
@@ -31887,7 +31888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A810" s="3">
         <v>174</v>
       </c>
@@ -31925,7 +31926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A811" s="3">
         <v>160</v>
       </c>
@@ -31963,7 +31964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A812" s="3">
         <v>162</v>
       </c>
@@ -32001,7 +32002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A813" s="3">
         <v>165</v>
       </c>
@@ -32039,7 +32040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A814" s="3">
         <v>167</v>
       </c>
@@ -32077,7 +32078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A815" s="3">
         <v>169</v>
       </c>
@@ -32115,7 +32116,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A816" s="3">
         <v>172</v>
       </c>
@@ -32153,7 +32154,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="817" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A817" s="3">
         <v>174</v>
       </c>
@@ -32191,7 +32192,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A818" s="3">
         <v>176</v>
       </c>
@@ -32229,7 +32230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A819" s="3">
         <v>183</v>
       </c>
@@ -32267,7 +32268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A820" s="3">
         <v>162</v>
       </c>
@@ -32305,7 +32306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A821" s="3">
         <v>165</v>
       </c>
@@ -32343,7 +32344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A822" s="3">
         <v>162</v>
       </c>
@@ -32381,7 +32382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A823" s="3">
         <v>165</v>
       </c>
@@ -32419,7 +32420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A824" s="3">
         <v>167</v>
       </c>
@@ -32457,7 +32458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A825" s="3">
         <v>169</v>
       </c>
@@ -32495,7 +32496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A826" s="3">
         <v>172</v>
       </c>
@@ -32533,7 +32534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A827" s="3">
         <v>174</v>
       </c>
@@ -32571,7 +32572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A828" s="3">
         <v>176</v>
       </c>
@@ -32609,7 +32610,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A829" s="3">
         <v>183</v>
       </c>
@@ -32647,7 +32648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A830" s="3">
         <v>158</v>
       </c>
@@ -32685,7 +32686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A831" s="3">
         <v>160</v>
       </c>
@@ -32723,7 +32724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A832" s="3">
         <v>162</v>
       </c>
@@ -32761,7 +32762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A833" s="3">
         <v>165</v>
       </c>
@@ -32799,7 +32800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A834" s="3">
         <v>167</v>
       </c>
@@ -32837,7 +32838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A835" s="3">
         <v>169</v>
       </c>
@@ -32875,7 +32876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A836" s="3">
         <v>172</v>
       </c>
@@ -32913,7 +32914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A837" s="3">
         <v>174</v>
       </c>
@@ -32951,7 +32952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A838" s="3">
         <v>176</v>
       </c>
@@ -32989,7 +32990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A839" s="3">
         <v>183</v>
       </c>
@@ -33027,7 +33028,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="840" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A840" s="3">
         <v>160</v>
       </c>
@@ -33065,7 +33066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A841" s="3">
         <v>162</v>
       </c>
@@ -33103,7 +33104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A842" s="3">
         <v>165</v>
       </c>
@@ -33141,7 +33142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A843" s="3">
         <v>167</v>
       </c>
@@ -33179,7 +33180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A844" s="3">
         <v>169</v>
       </c>
@@ -33217,7 +33218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A845" s="3">
         <v>172</v>
       </c>
@@ -33255,7 +33256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A846" s="3">
         <v>174</v>
       </c>
@@ -33293,7 +33294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A847" s="3">
         <v>176</v>
       </c>
@@ -33331,7 +33332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A848" s="3">
         <v>183</v>
       </c>
@@ -33369,7 +33370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="849" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A849" s="3">
         <v>160</v>
       </c>
@@ -33407,7 +33408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A850" s="3">
         <v>162</v>
       </c>
@@ -33445,7 +33446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A851" s="3">
         <v>165</v>
       </c>
@@ -33483,7 +33484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A852" s="3">
         <v>167</v>
       </c>
@@ -33521,7 +33522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A853" s="3">
         <v>169</v>
       </c>
@@ -33559,7 +33560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A854" s="3">
         <v>172</v>
       </c>
@@ -33597,7 +33598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A855" s="3">
         <v>174</v>
       </c>
@@ -33635,7 +33636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A856" s="3">
         <v>176</v>
       </c>
@@ -33673,7 +33674,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="857" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A857" s="3">
         <v>183</v>
       </c>
@@ -33711,7 +33712,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="858" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A858" s="3">
         <v>165</v>
       </c>
@@ -33749,7 +33750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A859" s="3">
         <v>167</v>
       </c>
@@ -33787,7 +33788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="860" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A860" s="3">
         <v>169</v>
       </c>
@@ -33825,7 +33826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A861" s="3">
         <v>172</v>
       </c>
@@ -33863,7 +33864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A862" s="3">
         <v>174</v>
       </c>
@@ -33901,7 +33902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A863" s="3">
         <v>176</v>
       </c>
@@ -33939,7 +33940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A864" s="3">
         <v>183</v>
       </c>
@@ -33977,7 +33978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="865" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A865" s="3">
         <v>160</v>
       </c>
@@ -34015,7 +34016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A866" s="3">
         <v>162</v>
       </c>
@@ -34053,7 +34054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A867" s="3">
         <v>165</v>
       </c>
@@ -34091,7 +34092,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="868" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A868" s="3">
         <v>167</v>
       </c>
@@ -34129,7 +34130,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="869" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A869" s="3">
         <v>158</v>
       </c>
@@ -34167,7 +34168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A870" s="3">
         <v>160</v>
       </c>
@@ -34205,7 +34206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A871" s="3">
         <v>162</v>
       </c>
@@ -34243,7 +34244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A872" s="3">
         <v>165</v>
       </c>
@@ -34281,7 +34282,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="873" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A873" s="3">
         <v>167</v>
       </c>
@@ -34319,7 +34320,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="874" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A874" s="3">
         <v>169</v>
       </c>
@@ -34357,7 +34358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A875" s="3">
         <v>172</v>
       </c>
@@ -34395,7 +34396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A876" s="3">
         <v>174</v>
       </c>
@@ -34433,7 +34434,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="877" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A877" s="3">
         <v>176</v>
       </c>
@@ -34471,7 +34472,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="878" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A878" s="3">
         <v>183</v>
       </c>
@@ -34509,7 +34510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="879" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A879" s="3">
         <v>162</v>
       </c>
@@ -34547,7 +34548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A880" s="3">
         <v>165</v>
       </c>
@@ -34585,7 +34586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A881" s="3">
         <v>167</v>
       </c>
@@ -34623,7 +34624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A882" s="3">
         <v>169</v>
       </c>
@@ -34661,7 +34662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A883" s="3">
         <v>172</v>
       </c>
@@ -34699,7 +34700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="884" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A884" s="3">
         <v>174</v>
       </c>
@@ -34737,7 +34738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="885" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A885" s="3">
         <v>162</v>
       </c>
@@ -34775,7 +34776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A886" s="3">
         <v>165</v>
       </c>
@@ -34813,7 +34814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A887" s="3">
         <v>167</v>
       </c>
@@ -34851,7 +34852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A888" s="3">
         <v>169</v>
       </c>
@@ -34889,7 +34890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A889" s="3">
         <v>172</v>
       </c>
@@ -34927,7 +34928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A890" s="3">
         <v>174</v>
       </c>
@@ -34965,7 +34966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A891" s="3">
         <v>176</v>
       </c>
@@ -35003,7 +35004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A892" s="3">
         <v>183</v>
       </c>
@@ -35041,7 +35042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A893" s="3">
         <v>160</v>
       </c>
@@ -35079,7 +35080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A894" s="3">
         <v>162</v>
       </c>
@@ -35117,7 +35118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A895" s="3">
         <v>165</v>
       </c>
@@ -35155,7 +35156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A896" s="3">
         <v>167</v>
       </c>
@@ -35193,7 +35194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A897" s="3">
         <v>169</v>
       </c>
@@ -35231,7 +35232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A898" s="3">
         <v>172</v>
       </c>
@@ -35269,7 +35270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A899" s="3">
         <v>174</v>
       </c>
@@ -35307,7 +35308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A900" s="3">
         <v>176</v>
       </c>
@@ -35345,7 +35346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A901" s="3">
         <v>183</v>
       </c>
@@ -35383,7 +35384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A902" s="3">
         <v>165</v>
       </c>
@@ -35421,7 +35422,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="903" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A903" s="3">
         <v>167</v>
       </c>
@@ -35459,7 +35460,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="904" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A904" s="3">
         <v>169</v>
       </c>
@@ -35497,7 +35498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A905" s="3">
         <v>172</v>
       </c>
@@ -35535,7 +35536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A906" s="3">
         <v>160</v>
       </c>
@@ -35573,7 +35574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A907" s="3">
         <v>162</v>
       </c>
@@ -35611,7 +35612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A908" s="3">
         <v>165</v>
       </c>
@@ -35649,7 +35650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A909" s="3">
         <v>167</v>
       </c>
@@ -35687,7 +35688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A910" s="3">
         <v>169</v>
       </c>
@@ -35725,7 +35726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A911" s="3">
         <v>172</v>
       </c>
@@ -35763,7 +35764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A912" s="3">
         <v>174</v>
       </c>
@@ -35801,7 +35802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A913" s="3">
         <v>176</v>
       </c>
@@ -35839,7 +35840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A914" s="3">
         <v>183</v>
       </c>
@@ -35877,7 +35878,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="915" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A915" s="3">
         <v>160</v>
       </c>
@@ -35915,7 +35916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A916" s="3">
         <v>162</v>
       </c>
@@ -35953,7 +35954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A917" s="3">
         <v>165</v>
       </c>
@@ -35991,7 +35992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A918" s="3">
         <v>167</v>
       </c>
@@ -36029,7 +36030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A919" s="3">
         <v>160</v>
       </c>
@@ -36067,7 +36068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A920" s="3">
         <v>162</v>
       </c>
@@ -36105,7 +36106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A921" s="3">
         <v>165</v>
       </c>
@@ -36143,7 +36144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A922" s="3">
         <v>167</v>
       </c>
@@ -36181,7 +36182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A923" s="3">
         <v>169</v>
       </c>
@@ -36219,7 +36220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A924" s="3">
         <v>172</v>
       </c>
@@ -36257,7 +36258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A925" s="3">
         <v>174</v>
       </c>
@@ -36295,7 +36296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A926" s="3">
         <v>176</v>
       </c>
@@ -36333,7 +36334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A927" s="3">
         <v>183</v>
       </c>
@@ -36371,7 +36372,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="928" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A928" s="3">
         <v>160</v>
       </c>
@@ -36409,7 +36410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A929" s="3">
         <v>162</v>
       </c>
@@ -36447,7 +36448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A930" s="3">
         <v>165</v>
       </c>
@@ -36485,7 +36486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A931" s="3">
         <v>167</v>
       </c>
@@ -36523,7 +36524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A932" s="3">
         <v>169</v>
       </c>
@@ -36561,7 +36562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="3">
         <v>172</v>
       </c>
@@ -36599,7 +36600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A934" s="3">
         <v>174</v>
       </c>
@@ -36637,7 +36638,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="935" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A935" s="3">
         <v>176</v>
       </c>
@@ -36675,7 +36676,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="936" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A936" s="3">
         <v>183</v>
       </c>
@@ -36713,7 +36714,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="937" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A937" s="3">
         <v>158</v>
       </c>
@@ -36751,7 +36752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A938" s="3">
         <v>160</v>
       </c>
@@ -36789,7 +36790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A939" s="3">
         <v>162</v>
       </c>
@@ -36827,7 +36828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A940" s="3">
         <v>165</v>
       </c>
@@ -36865,7 +36866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A941" s="3">
         <v>167</v>
       </c>
@@ -36903,7 +36904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A942" s="3">
         <v>169</v>
       </c>
@@ -36941,7 +36942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A943" s="3">
         <v>172</v>
       </c>
@@ -36979,7 +36980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A944" s="3">
         <v>174</v>
       </c>
@@ -37017,7 +37018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A945" s="3">
         <v>176</v>
       </c>
@@ -37055,7 +37056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A946" s="3">
         <v>183</v>
       </c>
@@ -37093,7 +37094,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="947" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A947" s="3">
         <v>162</v>
       </c>
@@ -37131,7 +37132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A948" s="3">
         <v>165</v>
       </c>
@@ -37169,7 +37170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A949" s="3">
         <v>167</v>
       </c>
@@ -37207,7 +37208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A950" s="3">
         <v>169</v>
       </c>
@@ -37245,7 +37246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A951" s="3">
         <v>172</v>
       </c>
@@ -37283,7 +37284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="952" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A952" s="3">
         <v>174</v>
       </c>
@@ -37321,7 +37322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="953" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A953" s="3">
         <v>162</v>
       </c>
@@ -37359,7 +37360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A954" s="3">
         <v>165</v>
       </c>
@@ -37397,7 +37398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A955" s="3">
         <v>167</v>
       </c>
@@ -37435,7 +37436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A956" s="3">
         <v>169</v>
       </c>
@@ -37473,7 +37474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A957" s="3">
         <v>172</v>
       </c>
@@ -37511,7 +37512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A958" s="3">
         <v>174</v>
       </c>
@@ -37549,7 +37550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A959" s="3">
         <v>176</v>
       </c>
@@ -37587,7 +37588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A960" s="3">
         <v>183</v>
       </c>
@@ -37625,7 +37626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A961" s="3">
         <v>158</v>
       </c>
@@ -37663,7 +37664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A962" s="3">
         <v>160</v>
       </c>
@@ -37701,7 +37702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="963" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A963" s="3">
         <v>162</v>
       </c>
@@ -37739,7 +37740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A964" s="3">
         <v>162</v>
       </c>
@@ -37777,7 +37778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A965" s="3">
         <v>165</v>
       </c>
@@ -37815,7 +37816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A966" s="3">
         <v>167</v>
       </c>
@@ -37853,7 +37854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A967" s="3">
         <v>169</v>
       </c>
@@ -37891,7 +37892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A968" s="3">
         <v>172</v>
       </c>
@@ -37929,7 +37930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A969" s="3">
         <v>174</v>
       </c>
@@ -37967,7 +37968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A970" s="3">
         <v>176</v>
       </c>
@@ -38005,7 +38006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A971" s="3">
         <v>183</v>
       </c>
@@ -38043,7 +38044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A972" s="3">
         <v>162</v>
       </c>
@@ -38081,7 +38082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A973" s="3">
         <v>165</v>
       </c>
@@ -38119,7 +38120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A974" s="3">
         <v>167</v>
       </c>
@@ -38157,7 +38158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A975" s="3">
         <v>169</v>
       </c>
@@ -38195,7 +38196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A976" s="3">
         <v>172</v>
       </c>
@@ -38233,7 +38234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A977" s="3">
         <v>174</v>
       </c>
@@ -38271,7 +38272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A978" s="3">
         <v>176</v>
       </c>
@@ -38309,7 +38310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A979" s="3">
         <v>183</v>
       </c>
@@ -38347,7 +38348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A980" s="3">
         <v>160</v>
       </c>
@@ -38385,7 +38386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A981" s="3">
         <v>162</v>
       </c>
@@ -38423,7 +38424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A982" s="3">
         <v>165</v>
       </c>
@@ -38461,7 +38462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A983" s="3">
         <v>167</v>
       </c>
@@ -38499,7 +38500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A984" s="3">
         <v>169</v>
       </c>
@@ -38537,7 +38538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A985" s="3">
         <v>172</v>
       </c>
@@ -38575,7 +38576,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="986" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A986" s="3">
         <v>174</v>
       </c>
@@ -38613,7 +38614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="987" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A987" s="3">
         <v>176</v>
       </c>
@@ -38651,7 +38652,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="988" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A988" s="3">
         <v>183</v>
       </c>
@@ -38689,7 +38690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A989" s="3">
         <v>165</v>
       </c>
@@ -38727,7 +38728,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="990" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A990" s="3">
         <v>167</v>
       </c>
@@ -38765,7 +38766,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="991" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A991" s="3">
         <v>169</v>
       </c>
@@ -38803,7 +38804,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="992" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A992" s="3">
         <v>158</v>
       </c>
@@ -38841,7 +38842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A993" s="3">
         <v>160</v>
       </c>
@@ -38879,7 +38880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A994" s="3">
         <v>162</v>
       </c>
@@ -38917,7 +38918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A995" s="3">
         <v>165</v>
       </c>
@@ -38955,7 +38956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A996" s="3">
         <v>167</v>
       </c>
@@ -38993,7 +38994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A997" s="3">
         <v>169</v>
       </c>
@@ -39031,7 +39032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A998" s="3">
         <v>172</v>
       </c>
@@ -39069,7 +39070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="999" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A999" s="3">
         <v>174</v>
       </c>
@@ -39107,7 +39108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1000" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1000" s="3">
         <v>176</v>
       </c>
@@ -39145,7 +39146,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="1001" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1001" s="3">
         <v>183</v>
       </c>
@@ -39183,7 +39184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1002" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1002" s="3">
         <v>160</v>
       </c>
@@ -39221,7 +39222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1003" s="3">
         <v>162</v>
       </c>
@@ -39259,7 +39260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1004" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1004" s="3">
         <v>165</v>
       </c>
@@ -39297,7 +39298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1005" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1005" s="3">
         <v>167</v>
       </c>
@@ -39335,7 +39336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1006" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1006" s="3">
         <v>167</v>
       </c>
@@ -39373,7 +39374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1007" s="3">
         <v>169</v>
       </c>
@@ -39411,7 +39412,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="1008" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1008" s="3">
         <v>158</v>
       </c>
@@ -39449,7 +39450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1009" s="3">
         <v>160</v>
       </c>
@@ -39487,7 +39488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1010" s="3">
         <v>162</v>
       </c>
@@ -39525,7 +39526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1011" s="3">
         <v>165</v>
       </c>
@@ -39563,7 +39564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1012" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1012" s="3">
         <v>167</v>
       </c>
@@ -39601,7 +39602,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="1013" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1013" s="3">
         <v>174</v>
       </c>
@@ -39639,7 +39640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1014" s="3">
         <v>176</v>
       </c>
@@ -39677,7 +39678,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1015" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1015" s="3">
         <v>183</v>
       </c>
@@ -39715,7 +39716,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1016" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1016" s="3">
         <v>160</v>
       </c>
@@ -39753,7 +39754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1017" s="3">
         <v>162</v>
       </c>
@@ -39791,7 +39792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1018" s="3">
         <v>165</v>
       </c>
@@ -39829,7 +39830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1019" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1019" s="3">
         <v>167</v>
       </c>
@@ -39867,7 +39868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1020" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1020" s="3">
         <v>160</v>
       </c>
@@ -39905,7 +39906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1021" s="3">
         <v>162</v>
       </c>
@@ -39943,7 +39944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1022" s="3">
         <v>165</v>
       </c>
@@ -39981,7 +39982,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1023" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1023" s="3">
         <v>167</v>
       </c>
@@ -40019,7 +40020,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1024" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1024" s="3">
         <v>160</v>
       </c>
@@ -40057,7 +40058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1025" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1025" s="3">
         <v>162</v>
       </c>
@@ -40095,7 +40096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1026" s="3">
         <v>165</v>
       </c>
@@ -40133,7 +40134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1027" s="3">
         <v>167</v>
       </c>
@@ -40171,7 +40172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1028" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1028" s="3">
         <v>169</v>
       </c>
@@ -40210,7 +40211,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L1028">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1028">
     <sortCondition ref="B2:B1028"/>
     <sortCondition ref="A2:A1028"/>
   </sortState>
@@ -40226,25 +40227,25 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40477,14 +40478,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EAFB7CB-0771-4657-88FF-831E46D946D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30C69716-2B2D-4531-8CF9-E2A8C10FD6A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -40497,6 +40490,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="8d30a389-4d56-4429-bc7f-f48221d5bec2"/>
     <ds:schemaRef ds:uri="9ea4a38b-8811-4417-ad95-e83ecafd41d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EAFB7CB-0771-4657-88FF-831E46D946D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
